--- a/biology/Botanique/Manilkara_lososiana/Manilkara_lososiana.xlsx
+++ b/biology/Botanique/Manilkara_lososiana/Manilkara_lososiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Manilkara lososiana est une espèce de plantes à fleurs de la famille des Sapotaceae et du genre Manilkara, endémique du Cameroun, qui fut décrite par David Kenfack et Corneille E. N. Ewango[3],[4]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manilkara lososiana est une espèce de plantes à fleurs de la famille des Sapotaceae et du genre Manilkara, endémique du Cameroun, qui fut décrite par David Kenfack et Corneille E. N. Ewango,. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète lososiana fait référence à Elizabeth Losos, directrice du centre de recherche sur les sciences des forêts tropicales au Smithsonian Tropical Research Institute[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète lososiana fait référence à Elizabeth Losos, directrice du centre de recherche sur les sciences des forêts tropicales au Smithsonian Tropical Research Institute.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre pouvant mesurer jusqu'à 35 m de haut, dont le tronc peut présenter jusqu'à 40 cm de diamètre. L'écorce est de couleur gris-brun. Ses feuilles obovales présentent un apex large et arrondi[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre pouvant mesurer jusqu'à 35 m de haut, dont le tronc peut présenter jusqu'à 40 cm de diamètre. L'écorce est de couleur gris-brun. Ses feuilles obovales présentent un apex large et arrondi.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante endémique du Cameroun[7], elle semble être localisée uniquement au parc national de Korup[7], principalement dans le milieu des forêts à feuillage persistant à environ 180 m d'altitude[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante endémique du Cameroun, elle semble être localisée uniquement au parc national de Korup, principalement dans le milieu des forêts à feuillage persistant à environ 180 m d'altitude.
 </t>
         </is>
       </c>
